--- a/makerclan/demo_project_1.xlsx
+++ b/makerclan/demo_project_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>project_id</t>
   </si>
@@ -45,19 +45,37 @@
   </si>
   <si>
     <t>Manna Deb Project</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>Arduino, Raspberry Pi</t>
+  </si>
+  <si>
+    <t>ELRMS689031</t>
+  </si>
+  <si>
+    <t>766|900</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -91,6 +109,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +433,7 @@
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,10 +452,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="222" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>6767</v>
+    <row r="2" spans="1:7" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -440,14 +466,17 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>76676</v>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
